--- a/PANAMÁ/Indígenas/Indicadores sociodemo poblaciones y PI CELADE/Indice de masculinidad-Indígena Panama.xlsx
+++ b/PANAMÁ/Indígenas/Indicadores sociodemo poblaciones y PI CELADE/Indice de masculinidad-Indígena Panama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Indígenas\Indicadores sociodemo poblaciones y PI CELADE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D063A7-1F0C-47AA-A1DF-39F230EE1E14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF62F3E7-8785-41DF-869A-1BB59A1A2807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,6 +277,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -287,9 +290,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -663,146 +663,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -829,10 +829,10 @@
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -842,10 +842,10 @@
     </row>
     <row r="12" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="4"/>
@@ -864,8 +864,8 @@
     </row>
     <row r="13" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
@@ -884,8 +884,8 @@
     </row>
     <row r="14" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
@@ -904,8 +904,8 @@
     </row>
     <row r="15" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
@@ -924,8 +924,8 @@
     </row>
     <row r="16" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
@@ -944,8 +944,8 @@
     </row>
     <row r="17" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
@@ -964,8 +964,8 @@
     </row>
     <row r="18" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
@@ -984,8 +984,8 @@
     </row>
     <row r="19" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
@@ -1004,8 +1004,8 @@
     </row>
     <row r="20" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="4" t="s">
         <v>23</v>
       </c>
@@ -1024,8 +1024,8 @@
     </row>
     <row r="21" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
@@ -1044,8 +1044,8 @@
     </row>
     <row r="22" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="4" t="s">
         <v>25</v>
       </c>
@@ -1064,8 +1064,8 @@
     </row>
     <row r="23" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="4" t="s">
         <v>26</v>
       </c>
@@ -1084,8 +1084,8 @@
     </row>
     <row r="24" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="4" t="s">
         <v>27</v>
       </c>
@@ -1104,8 +1104,8 @@
     </row>
     <row r="25" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="4" t="s">
         <v>28</v>
       </c>
@@ -1124,8 +1124,8 @@
     </row>
     <row r="26" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="4" t="s">
         <v>29</v>
       </c>
@@ -1144,8 +1144,8 @@
     </row>
     <row r="27" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="4" t="s">
         <v>30</v>
       </c>
@@ -1164,8 +1164,8 @@
     </row>
     <row r="28" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1184,8 +1184,8 @@
     </row>
     <row r="29" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="4" t="s">
         <v>32</v>
       </c>
@@ -1204,8 +1204,8 @@
     </row>
     <row r="30" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="4" t="s">
         <v>33</v>
       </c>
@@ -1224,8 +1224,8 @@
     </row>
     <row r="31" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="4"/>
@@ -1244,8 +1244,8 @@
     </row>
     <row r="32" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="4" t="s">
         <v>16</v>
       </c>
@@ -1264,8 +1264,8 @@
     </row>
     <row r="33" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="4" t="s">
         <v>17</v>
       </c>
@@ -1284,8 +1284,8 @@
     </row>
     <row r="34" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="4" t="s">
         <v>18</v>
       </c>
@@ -1304,8 +1304,8 @@
     </row>
     <row r="35" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="4" t="s">
         <v>19</v>
       </c>
@@ -1324,8 +1324,8 @@
     </row>
     <row r="36" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="4" t="s">
         <v>20</v>
       </c>
@@ -1344,8 +1344,8 @@
     </row>
     <row r="37" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="4" t="s">
         <v>21</v>
       </c>
@@ -1364,8 +1364,8 @@
     </row>
     <row r="38" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="4" t="s">
         <v>22</v>
       </c>
@@ -1384,8 +1384,8 @@
     </row>
     <row r="39" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="4" t="s">
         <v>23</v>
       </c>
@@ -1404,8 +1404,8 @@
     </row>
     <row r="40" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="4" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1424,8 @@
     </row>
     <row r="41" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="4" t="s">
         <v>25</v>
       </c>
@@ -1444,8 +1444,8 @@
     </row>
     <row r="42" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="4" t="s">
         <v>26</v>
       </c>
@@ -1464,8 +1464,8 @@
     </row>
     <row r="43" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="4" t="s">
         <v>27</v>
       </c>
@@ -1484,8 +1484,8 @@
     </row>
     <row r="44" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="4" t="s">
         <v>28</v>
       </c>
@@ -1504,8 +1504,8 @@
     </row>
     <row r="45" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="4" t="s">
         <v>29</v>
       </c>
@@ -1524,8 +1524,8 @@
     </row>
     <row r="46" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="4" t="s">
         <v>30</v>
       </c>
@@ -1544,8 +1544,8 @@
     </row>
     <row r="47" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="4" t="s">
         <v>31</v>
       </c>
@@ -1564,8 +1564,8 @@
     </row>
     <row r="48" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="4" t="s">
         <v>32</v>
       </c>
@@ -1584,8 +1584,8 @@
     </row>
     <row r="49" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="4" t="s">
         <v>33</v>
       </c>
@@ -1604,8 +1604,8 @@
     </row>
     <row r="50" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13" t="s">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="4"/>
@@ -1624,8 +1624,8 @@
     </row>
     <row r="51" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="4" t="s">
         <v>16</v>
       </c>
@@ -1644,8 +1644,8 @@
     </row>
     <row r="52" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="4" t="s">
         <v>17</v>
       </c>
@@ -1664,8 +1664,8 @@
     </row>
     <row r="53" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="4" t="s">
         <v>18</v>
       </c>
@@ -1684,8 +1684,8 @@
     </row>
     <row r="54" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="4" t="s">
         <v>19</v>
       </c>
@@ -1704,8 +1704,8 @@
     </row>
     <row r="55" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
         <v>20</v>
       </c>
@@ -1724,8 +1724,8 @@
     </row>
     <row r="56" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="4" t="s">
         <v>21</v>
       </c>
@@ -1744,8 +1744,8 @@
     </row>
     <row r="57" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="4" t="s">
         <v>22</v>
       </c>
@@ -1764,8 +1764,8 @@
     </row>
     <row r="58" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="4" t="s">
         <v>23</v>
       </c>
@@ -1784,8 +1784,8 @@
     </row>
     <row r="59" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="4" t="s">
         <v>24</v>
       </c>
@@ -1804,8 +1804,8 @@
     </row>
     <row r="60" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="4" t="s">
         <v>25</v>
       </c>
@@ -1824,8 +1824,8 @@
     </row>
     <row r="61" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="4" t="s">
         <v>26</v>
       </c>
@@ -1844,8 +1844,8 @@
     </row>
     <row r="62" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
       <c r="D62" s="4" t="s">
         <v>27</v>
       </c>
@@ -1864,8 +1864,8 @@
     </row>
     <row r="63" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="4" t="s">
         <v>28</v>
       </c>
@@ -1884,8 +1884,8 @@
     </row>
     <row r="64" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
       <c r="D64" s="4" t="s">
         <v>29</v>
       </c>
@@ -1904,8 +1904,8 @@
     </row>
     <row r="65" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="4" t="s">
         <v>30</v>
       </c>
@@ -1924,8 +1924,8 @@
     </row>
     <row r="66" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="4" t="s">
         <v>31</v>
       </c>
@@ -1944,8 +1944,8 @@
     </row>
     <row r="67" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="4" t="s">
         <v>32</v>
       </c>
@@ -1964,8 +1964,8 @@
     </row>
     <row r="68" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="4" t="s">
         <v>33</v>
       </c>
@@ -1997,19 +1997,19 @@
       <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
       <c r="L70" s="1"/>
     </row>
     <row r="71" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2028,21 +2028,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="B12:B68"/>
     <mergeCell ref="C12:C30"/>
     <mergeCell ref="C31:C49"/>
     <mergeCell ref="C50:C68"/>
     <mergeCell ref="A70:K70"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2057,8 +2057,8 @@
   </sheetPr>
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B103"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
